--- a/data/trans_media/IQ18C_M-Edad-trans_media.xlsx
+++ b/data/trans_media/IQ18C_M-Edad-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,35; 15,38</t>
+          <t>12,3; 15,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,56; 12,77</t>
+          <t>10,59; 12,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,75; 13,23</t>
+          <t>10,75; 13,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,68; 13,66</t>
+          <t>10,8; 13,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,02; 14,55</t>
+          <t>12,09; 14,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,85; 12,83</t>
+          <t>10,9; 12,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,63; 12,46</t>
+          <t>10,66; 12,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,73; 11,36</t>
+          <t>7,68; 11,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,51; 14,57</t>
+          <t>12,53; 14,33</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,98; 12,51</t>
+          <t>10,97; 12,5</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,97; 12,47</t>
+          <t>10,93; 12,48</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,57; 11,86</t>
+          <t>9,51; 11,98</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,01; 14,55</t>
+          <t>12,96; 14,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,01; 12,95</t>
+          <t>10,98; 12,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,62; 12,42</t>
+          <t>10,56; 12,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,23; 14,1</t>
+          <t>10,14; 14,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,37; 15,01</t>
+          <t>13,45; 15,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,02; 12,82</t>
+          <t>10,99; 12,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,19; 13,18</t>
+          <t>11,19; 13,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,45; 24,87</t>
+          <t>11,83; 24,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,36; 14,48</t>
+          <t>13,4; 14,46</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,27; 12,66</t>
+          <t>11,26; 12,63</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,08; 12,35</t>
+          <t>11,05; 12,39</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,61; 18,13</t>
+          <t>11,67; 18,05</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,29; 16,34</t>
+          <t>13,24; 16,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,85; 13,09</t>
+          <t>10,87; 13,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,95; 13,55</t>
+          <t>10,91; 13,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,85; 18,4</t>
+          <t>10,61; 18,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,06; 15,48</t>
+          <t>13,19; 15,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,36; 14,25</t>
+          <t>11,32; 14,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,23; 13,45</t>
+          <t>11,25; 13,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,3; 14,25</t>
+          <t>9,47; 14,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,51; 15,32</t>
+          <t>13,58; 15,38</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,45; 13,34</t>
+          <t>11,32; 13,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,36; 13,03</t>
+          <t>11,37; 12,99</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,77; 15,27</t>
+          <t>10,61; 15,27</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,3; 15,32</t>
+          <t>13,23; 15,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,36; 13,63</t>
+          <t>11,34; 13,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,63; 13,97</t>
+          <t>11,55; 13,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,99; 16,03</t>
+          <t>11,16; 16,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,44; 15,57</t>
+          <t>13,36; 15,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,83; 13,6</t>
+          <t>11,0; 13,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,34; 11,07</t>
+          <t>9,48; 11,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,32; 23,05</t>
+          <t>13,06; 23,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,63; 15,11</t>
+          <t>13,58; 15,15</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,43; 13,1</t>
+          <t>11,39; 13,11</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,73; 12,19</t>
+          <t>10,68; 12,17</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,48; 17,6</t>
+          <t>12,57; 17,33</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,39; 14,52</t>
+          <t>13,41; 14,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,36; 12,47</t>
+          <t>11,36; 12,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,35; 12,4</t>
+          <t>11,28; 12,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,63; 14,49</t>
+          <t>11,59; 14,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,56; 14,55</t>
+          <t>13,59; 14,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,45; 12,59</t>
+          <t>11,48; 12,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,06; 12,07</t>
+          <t>11,11; 12,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,96; 16,44</t>
+          <t>11,84; 16,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,63; 14,38</t>
+          <t>13,62; 14,38</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,59; 12,38</t>
+          <t>11,55; 12,35</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,35; 12,08</t>
+          <t>11,39; 12,14</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,18; 14,79</t>
+          <t>12,23; 14,67</t>
         </is>
       </c>
     </row>
